--- a/Software Project Management Plan/Actas/FALTAS!!!.xlsx
+++ b/Software Project Management Plan/Actas/FALTAS!!!.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Integrante</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Dorian Moreno</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>Camilo Muñoz</t>
   </si>
   <si>
@@ -38,9 +35,6 @@
   </si>
   <si>
     <t>Brayan García</t>
-  </si>
-  <si>
-    <t>1 (16-08-2019)</t>
   </si>
 </sst>
 </file>
@@ -320,40 +314,52 @@
       <c r="B2" s="2">
         <v>0.0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
